--- a/statistifiles/实验情况表.xlsx
+++ b/statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF9B9EA-7C28-4337-9ECC-FD30C1222F4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC079BF3-41AE-4232-B982-32057A02408F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>MAML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,6 +571,15 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.50749999999999995</v>
+      </c>
       <c r="K5" t="s">
         <v>11</v>
       </c>
@@ -580,94 +593,116 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>4000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.6996</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>7959</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7">
-        <v>7197</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7">
-        <v>2437</v>
-      </c>
-    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.70109999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.51539999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6996</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>7959</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>7197</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>60000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C12" s="3">
         <v>0.85499999999999998</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K12" t="s">
         <v>14</v>
       </c>
-      <c r="L8">
+      <c r="L12">
         <v>7182</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M12" t="s">
         <v>13</v>
       </c>
-      <c r="N8">
+      <c r="N12">
         <v>4228</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M9" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
         <v>14</v>
       </c>
-      <c r="N9">
+      <c r="N13">
         <v>681</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K10" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
         <v>18</v>
       </c>
-      <c r="L10">
+      <c r="L14">
         <v>7374</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M14" t="s">
         <v>18</v>
       </c>
-      <c r="N10">
+      <c r="N14">
         <v>1743</v>
       </c>
     </row>

--- a/statistifiles/实验情况表.xlsx
+++ b/statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC079BF3-41AE-4232-B982-32057A02408F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F390262-B307-49EB-82C1-C1A201B14CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/statistifiles/实验情况表.xlsx
+++ b/statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F390262-B307-49EB-82C1-C1A201B14CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B68372-638A-4E21-9776-5A939FDB3992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>CNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(vcnn)VCNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,6 +595,17 @@
       </c>
       <c r="N5">
         <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">

--- a/statistifiles/实验情况表.xlsx
+++ b/statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B68372-638A-4E21-9776-5A939FDB3992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213F0CFB-ABC2-4160-B197-5374227A4575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/statistifiles/实验情况表.xlsx
+++ b/statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213F0CFB-ABC2-4160-B197-5374227A4575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73059D51-02B8-4528-820C-5638ADB976A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>(vcnn)VCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vrn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmaml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,6 +716,15 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.82699999999999996</v>
+      </c>
       <c r="K14" t="s">
         <v>18</v>
       </c>
@@ -719,6 +736,11 @@
       </c>
       <c r="N14">
         <v>1743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/statistifiles/实验情况表.xlsx
+++ b/statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73059D51-02B8-4528-820C-5638ADB976A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B3D57-0D33-4FF9-A737-98C490C513C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>vmaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.06±0.44%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.23±0.46%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.99±0.304%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,13 +189,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,25 +515,25 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -527,14 +547,14 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -606,14 +626,14 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.63900000000000001</v>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -689,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="C12" s="3">
-        <v>0.85499999999999998</v>
+        <v>0.84519999999999995</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -716,14 +736,14 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>2000</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.82699999999999996</v>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K14" t="s">
         <v>18</v>
@@ -739,8 +759,14 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="4">
+        <v>500</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/statistifiles/实验情况表.xlsx
+++ b/statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B3D57-0D33-4FF9-A737-98C490C513C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC96153-E3B8-4471-85E4-82EA97DD7D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,15 +122,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>87.06±0.44%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>82.23±0.46%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>63.99±0.304%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.65±0.497%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>2000</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
         <v>18</v>
@@ -763,10 +763,10 @@
         <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/statistifiles/实验情况表.xlsx
+++ b/statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC96153-E3B8-4471-85E4-82EA97DD7D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF78DD-E54E-407D-9EDF-A3FD9D33CA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -189,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +219,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,7 +533,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,13 +621,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
         <v>0.50749999999999995</v>
       </c>
       <c r="K5" t="s">
@@ -637,13 +655,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>2000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="10">
         <v>0.70109999999999995</v>
       </c>
     </row>
@@ -705,13 +723,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>500</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="10">
         <v>0.84519999999999995</v>
       </c>
       <c r="K12" t="s">
